--- a/public/templates/maintenance-ranges_template.xlsx
+++ b/public/templates/maintenance-ranges_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,152 +397,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>internalCode</v>
+      </c>
+      <c r="B1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>description</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>type</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>frequency</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>startDate</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>startTime</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>daysOfWeek</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>DAILY_INSP</v>
+      </c>
+      <c r="B2" t="str">
         <v>Daily Inspection</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Daily safety and performance check</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>preventive</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>daily</v>
       </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
       <c r="F2" t="str">
+        <v>2024-01-01</v>
+      </c>
+      <c r="G2" t="str">
         <v>08:00</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <v>1,2,3,4,5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>WEEKLY_MAINT</v>
+      </c>
+      <c r="B3" t="str">
         <v>Weekly Maintenance</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <v>Weekly comprehensive maintenance</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <v>preventive</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>weekly</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>2024-01-01</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>09:00</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>MONTHLY_SVC</v>
+      </c>
+      <c r="B4" t="str">
         <v>Monthly Service</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <v>Monthly deep service</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v>preventive</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>monthly</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>2024-01-01</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <v>10:00</v>
       </c>
-      <c r="G4" t="str">
-        <v/>
+      <c r="H4" t="str">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>ANNUAL_OVER</v>
+      </c>
+      <c r="B5" t="str">
         <v>Annual Overhaul</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <v>Annual complete overhaul</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>preventive</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>yearly</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <v>2024-01-01</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <v>08:00</v>
       </c>
-      <c r="G5" t="str">
-        <v/>
+      <c r="H5" t="str">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>EMERGENCY</v>
+      </c>
+      <c r="B6" t="str">
         <v>Emergency Repair</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <v>Emergency corrective maintenance</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>corrective</v>
       </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
       <c r="E6" t="str">
-        <v/>
+        <v>on_demand</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>2024-01-01</v>
       </c>
       <c r="G6" t="str">
+        <v>00:00</v>
+      </c>
+      <c r="H6" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>